--- a/Tableau synthese yacine (1.xlsx
+++ b/Tableau synthese yacine (1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaya6\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0500CE0E-41DC-4E73-BDDD-BD590920CA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E52F576E-D1EA-42B6-BC71-599A33141BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Projet Ma Banque</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B 1.3.3</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -317,6 +323,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -723,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -830,15 +843,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,29 +909,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1206,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1221,56 +1237,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="38"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:43" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="57"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1280,22 +1296,22 @@
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -1318,8 +1334,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
@@ -1375,16 +1391,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1665,11 +1681,15 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="58" t="s">
+        <v>55</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="22"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="24"/>
@@ -1890,16 +1910,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2276,16 +2296,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2726,11 +2746,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2738,6 +2753,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2748,12 +2768,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100165EFD6D91C2F84BAD70F011B38B3276" ma:contentTypeVersion="5" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="73e306c020ebbf80b6f3f88d1f76149b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c6bcd0-d32b-4ef0-8484-71ebbbbf4f44" xmlns:ns3="33f8cbea-5dab-4a03-90e3-80dbb3ebee2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68d9dae5b0150fe2cf52b4f82202876c" ns2:_="" ns3:_="">
     <xsd:import namespace="f3c6bcd0-d32b-4ef0-8484-71ebbbbf4f44"/>
@@ -2924,6 +2938,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2934,15 +2954,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98BEDBF7-54D3-4FB1-B0C0-C34E18C6D230}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2961,6 +2972,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89043933-6526-4BB0-BE84-4F8A6FC88E33}">
   <ds:schemaRefs>
